--- a/test_物件管理/test_ホワイトボート_車室詳細.xlsx
+++ b/test_物件管理/test_ホワイトボート_車室詳細.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284">
   <si>
     <t>SQL</t>
   </si>
@@ -587,28 +587,118 @@
     <t>002-001-001フィルター検索</t>
   </si>
   <si>
-    <t>2018-05-04 07:05:11</t>
-  </si>
-  <si>
-    <t>10006</t>
-  </si>
-  <si>
-    <t>134-0088</t>
-  </si>
-  <si>
-    <t>2222</t>
-  </si>
-  <si>
-    <t>222</t>
-  </si>
-  <si>
-    <t>sd</t>
-  </si>
-  <si>
-    <t>2番地</t>
-  </si>
-  <si>
-    <t>01</t>
+    <t>ap_management_company_staffap_management_company_staff</t>
+  </si>
+  <si>
+    <t>select * from ap_management_company_staffap_management_company_staff</t>
+  </si>
+  <si>
+    <t>ap_parking_position</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_position</t>
+  </si>
+  <si>
+    <t>ap_parking_lot_building_management_company_staff</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_lot_building_management_company_staff</t>
+  </si>
+  <si>
+    <t>ap_parking_lot_cancellation</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_lot_cancellation</t>
+  </si>
+  <si>
+    <t>ap_parking_lot_comment</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_lot_comment</t>
+  </si>
+  <si>
+    <t>ap_parking_lot_doc</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_lot_doc</t>
+  </si>
+  <si>
+    <t>ap_parking_lot_image</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_lot_image</t>
+  </si>
+  <si>
+    <t>ap_parking_lot_key</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_lot_key</t>
+  </si>
+  <si>
+    <t>ap_parking_lot_key_order</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_lot_key_order</t>
+  </si>
+  <si>
+    <t>ap_parking_lot_lease_management_company_staff</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_lot_lease_management_company_staff</t>
+  </si>
+  <si>
+    <t>ap_parking_lot_private_doc</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_lot_private_doc</t>
+  </si>
+  <si>
+    <t>ap_parking_lot_provision</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_lot_provision</t>
+  </si>
+  <si>
+    <t>ap_parking_lot_staff_history</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_lot_staff_history</t>
+  </si>
+  <si>
+    <t>ap_parking_lot_station</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_lot_station</t>
+  </si>
+  <si>
+    <t>ap_parking_lot_type</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_lot_type</t>
+  </si>
+  <si>
+    <t>ap_parking_position_cancellation</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_position_cancellation</t>
+  </si>
+  <si>
+    <t>ap_parking_position_comment</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_position_comment</t>
+  </si>
+  <si>
+    <t>ap_parking_position_key</t>
+  </si>
+  <si>
+    <t>select * from ap_parking_position_key</t>
+  </si>
+  <si>
+    <t>ap_price_raising</t>
+  </si>
+  <si>
+    <t>select * from ap_price_raising</t>
   </si>
   <si>
     <t>//*[@id="table"]/tbody/tr/td[1]/a</t>
@@ -735,6 +825,15 @@
   </si>
   <si>
     <t>002-001-006</t>
+  </si>
+  <si>
+    <t>IN_FORM_006</t>
+  </si>
+  <si>
+    <t>EXPECT_005</t>
+  </si>
+  <si>
+    <t>RESULT_006</t>
   </si>
   <si>
     <t>006</t>
@@ -779,11 +878,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="39">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -834,10 +933,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -847,62 +945,8 @@
       <charset val="128"/>
     </font>
     <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="ＭＳ Ｐゴシック"/>
-      <charset val="128"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Meiryo UI"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
@@ -922,6 +966,12 @@
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -935,10 +985,40 @@
       <charset val="128"/>
     </font>
     <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Meiryo UI"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -951,23 +1031,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -985,63 +1059,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1063,6 +1090,29 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -1071,7 +1121,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1084,8 +1149,22 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="42">
+  <fills count="41">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1137,12 +1216,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92CDDC"/>
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
@@ -1154,25 +1227,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor rgb="FF000000"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1184,7 +1245,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1202,7 +1281,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1214,7 +1305,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1226,97 +1377,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1413,36 +1486,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
@@ -1457,11 +1500,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1490,6 +1539,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1506,10 +1579,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1518,138 +1591,138 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="25" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="38" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="29" fillId="12" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="31" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="33" fillId="23" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="39" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="40" fillId="9" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="25" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1711,58 +1784,43 @@
     <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="9" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="10" fillId="9" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="9" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="12" fillId="11" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="10" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="16" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="18" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="18" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="15" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="19" fillId="12" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="16" fillId="12" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="13" fillId="13" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="18" fillId="8" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" quotePrefix="1"/>
   </cellXfs>
@@ -2116,8 +2174,8 @@
   <sheetPr/>
   <dimension ref="A3:BV64"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A13" sqref="$A13:$XFD67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
@@ -2130,7 +2188,7 @@
   </cols>
   <sheetData>
     <row r="3" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A3" s="36" t="s">
+      <c r="A3" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="23" t="s">
@@ -2144,7 +2202,7 @@
       <c r="H3" s="17"/>
     </row>
     <row r="4" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A4" s="36" t="s">
+      <c r="A4" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B4" s="23" t="s">
@@ -2158,7 +2216,7 @@
       <c r="H4" s="17"/>
     </row>
     <row r="5" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="23" t="s">
@@ -2171,7 +2229,7 @@
       <c r="H5" s="17"/>
     </row>
     <row r="6" customFormat="1" ht="14.25" spans="1:8">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="40" t="s">
         <v>0</v>
       </c>
       <c r="B6" s="23" t="s">
@@ -2185,7 +2243,7 @@
       <c r="H6" s="17"/>
     </row>
     <row r="7" ht="14.25" spans="1:2">
-      <c r="A7" s="37" t="s">
+      <c r="A7" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B7" s="23" t="s">
@@ -2193,7 +2251,7 @@
       </c>
     </row>
     <row r="8" ht="14.25" spans="1:7">
-      <c r="A8" s="37" t="s">
+      <c r="A8" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="23" t="s">
@@ -2206,7 +2264,7 @@
       <c r="G8" s="23"/>
     </row>
     <row r="9" ht="14.25" spans="1:7">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B9" s="23" t="s">
@@ -2219,7 +2277,7 @@
       <c r="G9" s="23"/>
     </row>
     <row r="10" ht="14.25" spans="1:7">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B10" s="23" t="s">
@@ -2232,7 +2290,7 @@
       <c r="G10" s="23"/>
     </row>
     <row r="11" ht="14.25" spans="1:7">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B11" s="23" t="s">
@@ -2245,7 +2303,7 @@
       <c r="G11" s="23"/>
     </row>
     <row r="12" ht="14.25" spans="1:7">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="34" t="s">
         <v>0</v>
       </c>
       <c r="B12" s="23" t="s">
@@ -2284,7 +2342,7 @@
       </c>
     </row>
     <row r="16" s="22" customFormat="1" ht="13.5" spans="2:71">
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="25" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="26"/>
@@ -2358,1556 +2416,1556 @@
       <c r="BS16" s="26"/>
     </row>
     <row r="17" s="22" customFormat="1" ht="13.5" spans="1:74">
-      <c r="A17" s="39"/>
-      <c r="B17" s="40" t="s">
+      <c r="A17" s="27"/>
+      <c r="B17" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C17" s="41" t="s">
+      <c r="C17" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="41" t="s">
+      <c r="D17" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E17" s="41" t="s">
+      <c r="E17" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F17" s="42" t="s">
+      <c r="F17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G17" s="41" t="s">
+      <c r="G17" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="41" t="s">
+      <c r="H17" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="41" t="s">
+      <c r="I17" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="41" t="s">
+      <c r="J17" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K17" s="41" t="s">
+      <c r="K17" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L17" s="41" t="s">
+      <c r="L17" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M17" s="41" t="s">
+      <c r="M17" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="N17" s="41" t="s">
+      <c r="N17" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O17" s="41" t="s">
+      <c r="O17" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="P17" s="41" t="s">
+      <c r="P17" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Q17" s="41" t="s">
+      <c r="Q17" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="R17" s="41" t="s">
+      <c r="R17" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="S17" s="41" t="s">
+      <c r="S17" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="T17" s="41" t="s">
+      <c r="T17" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="U17" s="41" t="s">
+      <c r="U17" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="V17" s="41" t="s">
+      <c r="V17" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="W17" s="41" t="s">
+      <c r="W17" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="X17" s="41" t="s">
+      <c r="X17" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="Y17" s="41" t="s">
+      <c r="Y17" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="Z17" s="41" t="s">
+      <c r="Z17" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AA17" s="41" t="s">
+      <c r="AA17" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AB17" s="41" t="s">
+      <c r="AB17" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AC17" s="41" t="s">
+      <c r="AC17" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AD17" s="41" t="s">
+      <c r="AD17" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AE17" s="41" t="s">
+      <c r="AE17" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AF17" s="41" t="s">
+      <c r="AF17" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AG17" s="41" t="s">
+      <c r="AG17" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AH17" s="41" t="s">
+      <c r="AH17" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AI17" s="41" t="s">
+      <c r="AI17" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AJ17" s="41" t="s">
+      <c r="AJ17" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AK17" s="41" t="s">
+      <c r="AK17" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AL17" s="41" t="s">
+      <c r="AL17" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AM17" s="41" t="s">
+      <c r="AM17" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AN17" s="41" t="s">
+      <c r="AN17" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AO17" s="41" t="s">
+      <c r="AO17" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AP17" s="41" t="s">
+      <c r="AP17" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AQ17" s="41" t="s">
+      <c r="AQ17" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AR17" s="41" t="s">
+      <c r="AR17" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AS17" s="41" t="s">
+      <c r="AS17" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="AT17" s="41" t="s">
+      <c r="AT17" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AU17" s="41" t="s">
+      <c r="AU17" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AV17" s="41" t="s">
+      <c r="AV17" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AW17" s="41" t="s">
+      <c r="AW17" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AX17" s="41" t="s">
+      <c r="AX17" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AY17" s="41" t="s">
+      <c r="AY17" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AZ17" s="41" t="s">
+      <c r="AZ17" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="BA17" s="41" t="s">
+      <c r="BA17" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="BB17" s="41" t="s">
+      <c r="BB17" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BC17" s="41" t="s">
+      <c r="BC17" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BD17" s="41" t="s">
+      <c r="BD17" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BE17" s="41" t="s">
+      <c r="BE17" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BF17" s="41" t="s">
+      <c r="BF17" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="BG17" s="41" t="s">
+      <c r="BG17" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="BH17" s="41" t="s">
+      <c r="BH17" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="BI17" s="41" t="s">
+      <c r="BI17" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="BJ17" s="41" t="s">
+      <c r="BJ17" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="BK17" s="41" t="s">
+      <c r="BK17" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="BL17" s="41" t="s">
+      <c r="BL17" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="BM17" s="41" t="s">
+      <c r="BM17" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="BN17" s="41" t="s">
+      <c r="BN17" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="BO17" s="41" t="s">
+      <c r="BO17" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="BP17" s="41" t="s">
+      <c r="BP17" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="BQ17" s="41" t="s">
+      <c r="BQ17" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="BR17" s="41" t="s">
+      <c r="BR17" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="BS17" s="41" t="s">
+      <c r="BS17" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="BT17" s="41" t="s">
+      <c r="BT17" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="BU17" s="41" t="s">
+      <c r="BU17" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="BV17" s="41" t="s">
+      <c r="BV17" s="29" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="18" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:74">
-      <c r="A18" s="33"/>
-      <c r="B18" s="31" t="s">
+      <c r="A18" s="31"/>
+      <c r="B18" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="C18" s="31" t="s">
+      <c r="C18" s="32" t="s">
         <v>87</v>
       </c>
-      <c r="D18" s="31" t="s">
+      <c r="D18" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="E18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="F18" s="31" t="s">
+      <c r="E18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F18" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="G18" s="31" t="s">
+      <c r="G18" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="H18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="I18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J18" s="31" t="s">
+      <c r="H18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J18" s="32" t="s">
         <v>92</v>
       </c>
-      <c r="K18" s="31" t="s">
+      <c r="K18" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="L18" s="31" t="s">
+      <c r="L18" s="32" t="s">
         <v>94</v>
       </c>
-      <c r="M18" s="43" t="s">
+      <c r="M18" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="N18" s="31" t="s">
+      <c r="N18" s="32" t="s">
         <v>96</v>
       </c>
-      <c r="O18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="P18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q18" s="43" t="s">
+      <c r="O18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q18" s="33" t="s">
         <v>97</v>
       </c>
-      <c r="R18" s="31" t="s">
+      <c r="R18" s="32" t="s">
         <v>98</v>
       </c>
-      <c r="S18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="T18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="U18" s="43" t="s">
+      <c r="S18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="T18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="U18" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="V18" s="31" t="s">
+      <c r="V18" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="W18" s="31" t="s">
+      <c r="W18" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="X18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD18" s="31" t="s">
+      <c r="X18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD18" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AE18" s="31" t="s">
+      <c r="AE18" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="AF18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG18" s="43" t="s">
+      <c r="AF18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG18" s="33" t="s">
         <v>88</v>
       </c>
-      <c r="AH18" s="31" t="s">
+      <c r="AH18" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="AI18" s="31" t="s">
+      <c r="AI18" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AJ18" s="31" t="s">
+      <c r="AJ18" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AK18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN18" s="31" t="s">
+      <c r="AK18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN18" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AO18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP18" s="31" t="s">
+      <c r="AO18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP18" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AQ18" s="31" t="s">
+      <c r="AQ18" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AR18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV18" s="31" t="s">
+      <c r="AR18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV18" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AW18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY18" s="31" t="s">
+      <c r="AW18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY18" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="AZ18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP18" s="31" t="s">
+      <c r="AZ18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP18" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="BQ18" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BS18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT18" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU18" s="43" t="s">
+      <c r="BQ18" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT18" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU18" s="33" t="s">
         <v>101</v>
       </c>
-      <c r="BV18" s="31" t="s">
+      <c r="BV18" s="32" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="19" customFormat="1" ht="13.5" spans="1:74">
-      <c r="A19" s="39"/>
-      <c r="B19" s="31">
+      <c r="A19" s="27"/>
+      <c r="B19" s="32">
         <v>43087.3815856481</v>
       </c>
-      <c r="C19" s="31">
+      <c r="C19" s="32">
         <v>43087.3815856481</v>
       </c>
-      <c r="D19" s="31">
+      <c r="D19" s="32">
         <v>0</v>
       </c>
-      <c r="E19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="F19" s="31">
+      <c r="E19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F19" s="32">
         <v>103417</v>
       </c>
-      <c r="G19" s="31" t="s">
+      <c r="G19" s="32" t="s">
         <v>102</v>
       </c>
-      <c r="H19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="I19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J19" s="31">
+      <c r="H19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="32">
         <v>13</v>
       </c>
-      <c r="K19" s="31" t="s">
+      <c r="K19" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="L19" s="31">
+      <c r="L19" s="32">
         <v>13110</v>
       </c>
-      <c r="M19" s="43" t="s">
+      <c r="M19" s="33" t="s">
         <v>95</v>
       </c>
-      <c r="N19" s="31" t="s">
+      <c r="N19" s="32" t="s">
         <v>103</v>
       </c>
-      <c r="O19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="P19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q19" s="43">
+      <c r="O19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="33">
         <v>139.6854343</v>
       </c>
-      <c r="R19" s="31">
+      <c r="R19" s="32">
         <v>35.781556</v>
       </c>
-      <c r="S19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="T19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="U19" s="43">
+      <c r="S19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="T19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="U19" s="33">
         <v>0</v>
       </c>
-      <c r="V19" s="31">
+      <c r="V19" s="32">
         <v>0</v>
       </c>
-      <c r="W19" s="31">
+      <c r="W19" s="32">
         <v>0</v>
       </c>
-      <c r="X19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD19" s="31">
+      <c r="X19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD19" s="32">
         <v>2</v>
       </c>
-      <c r="AE19" s="31">
+      <c r="AE19" s="32">
         <v>2958465</v>
       </c>
-      <c r="AF19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI19" s="31">
+      <c r="AF19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI19" s="32">
         <v>1</v>
       </c>
-      <c r="AJ19" s="31">
+      <c r="AJ19" s="32">
         <v>1</v>
       </c>
-      <c r="AK19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN19" s="31">
+      <c r="AK19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN19" s="32">
         <v>1</v>
       </c>
-      <c r="AO19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP19" s="31">
+      <c r="AO19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP19" s="32">
         <v>1</v>
       </c>
-      <c r="AQ19" s="31">
+      <c r="AQ19" s="32">
         <v>1</v>
       </c>
-      <c r="AR19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV19" s="31">
+      <c r="AR19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV19" s="32">
         <v>1</v>
       </c>
-      <c r="AW19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY19" s="31">
+      <c r="AW19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY19" s="32">
         <v>1</v>
       </c>
-      <c r="AZ19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP19" s="31">
+      <c r="AZ19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP19" s="32">
         <v>0</v>
       </c>
-      <c r="BQ19" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BS19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT19" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU19" s="43">
+      <c r="BQ19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT19" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU19" s="33">
         <v>6</v>
       </c>
-      <c r="BV19" s="31">
+      <c r="BV19" s="32">
         <v>3</v>
       </c>
     </row>
     <row r="20" customFormat="1" ht="13.5" spans="1:74">
-      <c r="A20" s="39"/>
-      <c r="B20" s="31">
+      <c r="A20" s="27"/>
+      <c r="B20" s="32">
         <v>43087.3815856481</v>
       </c>
-      <c r="C20" s="31">
+      <c r="C20" s="32">
         <v>43087.3815856481</v>
       </c>
-      <c r="D20" s="31">
+      <c r="D20" s="32">
         <v>0</v>
       </c>
-      <c r="E20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="F20" s="31">
+      <c r="E20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F20" s="32">
         <v>104028</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="G20" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="H20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="I20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J20" s="31">
+      <c r="H20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="32">
         <v>13</v>
       </c>
-      <c r="K20" s="31" t="s">
+      <c r="K20" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="L20" s="31">
+      <c r="L20" s="32">
         <v>13110</v>
       </c>
-      <c r="M20" s="43" t="s">
+      <c r="M20" s="33" t="s">
         <v>105</v>
       </c>
-      <c r="N20" s="31" t="s">
+      <c r="N20" s="32" t="s">
         <v>106</v>
       </c>
-      <c r="O20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="P20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q20" s="43">
+      <c r="O20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" s="33">
         <v>139.8584456</v>
       </c>
-      <c r="R20" s="31">
+      <c r="R20" s="32">
         <v>35.657251</v>
       </c>
-      <c r="S20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="T20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="U20" s="43">
+      <c r="S20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="T20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="U20" s="33">
         <v>0</v>
       </c>
-      <c r="V20" s="31">
+      <c r="V20" s="32">
         <v>0</v>
       </c>
-      <c r="W20" s="31">
+      <c r="W20" s="32">
         <v>0</v>
       </c>
-      <c r="X20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD20" s="31">
+      <c r="X20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD20" s="32">
         <v>4</v>
       </c>
-      <c r="AE20" s="31">
+      <c r="AE20" s="32">
         <v>2958465</v>
       </c>
-      <c r="AF20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG20" s="43">
+      <c r="AF20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG20" s="33">
         <v>0</v>
       </c>
-      <c r="AH20" s="31">
+      <c r="AH20" s="32">
         <v>0</v>
       </c>
-      <c r="AI20" s="31">
+      <c r="AI20" s="32">
         <v>1</v>
       </c>
-      <c r="AJ20" s="31">
+      <c r="AJ20" s="32">
         <v>1</v>
       </c>
-      <c r="AK20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN20" s="31">
+      <c r="AK20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN20" s="32">
         <v>1</v>
       </c>
-      <c r="AO20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP20" s="31">
+      <c r="AO20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP20" s="32">
         <v>1</v>
       </c>
-      <c r="AQ20" s="31">
+      <c r="AQ20" s="32">
         <v>1</v>
       </c>
-      <c r="AR20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV20" s="31">
+      <c r="AR20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV20" s="32">
         <v>1</v>
       </c>
-      <c r="AW20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY20" s="31">
+      <c r="AW20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY20" s="32">
         <v>1</v>
       </c>
-      <c r="AZ20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP20" s="31">
+      <c r="AZ20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP20" s="32">
         <v>0</v>
       </c>
-      <c r="BQ20" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BS20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT20" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU20" s="43">
+      <c r="BQ20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT20" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU20" s="33">
         <v>6</v>
       </c>
-      <c r="BV20" s="31">
+      <c r="BV20" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="21" customFormat="1" ht="13.5" spans="1:74">
-      <c r="A21" s="39"/>
-      <c r="B21" s="31">
+      <c r="A21" s="27"/>
+      <c r="B21" s="32">
         <v>43087.3815856481</v>
       </c>
-      <c r="C21" s="31">
+      <c r="C21" s="32">
         <v>43087.3815856481</v>
       </c>
-      <c r="D21" s="31">
+      <c r="D21" s="32">
         <v>0</v>
       </c>
-      <c r="E21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="F21" s="31">
+      <c r="E21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="32">
         <v>105023</v>
       </c>
-      <c r="G21" s="31" t="s">
+      <c r="G21" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="H21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="I21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J21" s="31">
+      <c r="H21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="32">
         <v>13</v>
       </c>
-      <c r="K21" s="31" t="s">
+      <c r="K21" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="L21" s="31">
+      <c r="L21" s="32">
         <v>13110</v>
       </c>
-      <c r="M21" s="43" t="s">
+      <c r="M21" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="N21" s="31" t="s">
+      <c r="N21" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="O21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="P21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q21" s="43">
+      <c r="O21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21" s="33">
         <v>139.721395</v>
       </c>
-      <c r="R21" s="31">
+      <c r="R21" s="32">
         <v>35.561504</v>
       </c>
-      <c r="S21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="T21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="U21" s="43">
+      <c r="S21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="T21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="U21" s="33">
         <v>0</v>
       </c>
-      <c r="V21" s="31">
+      <c r="V21" s="32">
         <v>0</v>
       </c>
-      <c r="W21" s="31">
+      <c r="W21" s="32">
         <v>0</v>
       </c>
-      <c r="X21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE21" s="31">
+      <c r="X21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE21" s="32">
         <v>2958465</v>
       </c>
-      <c r="AF21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG21" s="43">
+      <c r="AF21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG21" s="33">
         <v>0</v>
       </c>
-      <c r="AH21" s="31">
+      <c r="AH21" s="32">
         <v>0</v>
       </c>
-      <c r="AI21" s="31">
+      <c r="AI21" s="32">
         <v>1</v>
       </c>
-      <c r="AJ21" s="31">
+      <c r="AJ21" s="32">
         <v>1</v>
       </c>
-      <c r="AK21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN21" s="31">
+      <c r="AK21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN21" s="32">
         <v>1</v>
       </c>
-      <c r="AO21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP21" s="31">
+      <c r="AO21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP21" s="32">
         <v>1</v>
       </c>
-      <c r="AQ21" s="31">
+      <c r="AQ21" s="32">
         <v>1</v>
       </c>
-      <c r="AR21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV21" s="31">
+      <c r="AR21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV21" s="32">
         <v>1</v>
       </c>
-      <c r="AW21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY21" s="31">
+      <c r="AW21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY21" s="32">
         <v>1</v>
       </c>
-      <c r="AZ21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP21" s="31">
+      <c r="AZ21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP21" s="32">
         <v>0</v>
       </c>
-      <c r="BQ21" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BS21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT21" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU21" s="43">
+      <c r="BQ21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT21" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU21" s="33">
         <v>6</v>
       </c>
-      <c r="BV21" s="31">
+      <c r="BV21" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="22" customFormat="1" ht="13.5" spans="1:74">
-      <c r="A22" s="39"/>
-      <c r="B22" s="31">
+      <c r="A22" s="27"/>
+      <c r="B22" s="32">
         <v>43087.3815972222</v>
       </c>
-      <c r="C22" s="31">
+      <c r="C22" s="32">
         <v>43087.3815972222</v>
       </c>
-      <c r="D22" s="31">
+      <c r="D22" s="32">
         <v>0</v>
       </c>
-      <c r="E22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="F22" s="31">
+      <c r="E22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F22" s="32">
         <v>105027</v>
       </c>
-      <c r="G22" s="31" t="s">
+      <c r="G22" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="H22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="I22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J22" s="31">
+      <c r="H22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="32">
         <v>13</v>
       </c>
-      <c r="K22" s="31" t="s">
+      <c r="K22" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="L22" s="31">
+      <c r="L22" s="32">
         <v>13110</v>
       </c>
-      <c r="M22" s="43" t="s">
+      <c r="M22" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="N22" s="31" t="s">
+      <c r="N22" s="32" t="s">
         <v>111</v>
       </c>
-      <c r="O22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="P22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q22" s="43">
+      <c r="O22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q22" s="33">
         <v>139.7170975</v>
       </c>
-      <c r="R22" s="31">
+      <c r="R22" s="32">
         <v>35.5739412</v>
       </c>
-      <c r="S22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="T22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="U22" s="43">
+      <c r="S22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="T22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="U22" s="33">
         <v>0</v>
       </c>
-      <c r="V22" s="31">
+      <c r="V22" s="32">
         <v>0</v>
       </c>
-      <c r="W22" s="31">
+      <c r="W22" s="32">
         <v>0</v>
       </c>
-      <c r="X22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD22" s="31">
+      <c r="X22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD22" s="32">
         <v>5</v>
       </c>
-      <c r="AE22" s="31">
+      <c r="AE22" s="32">
         <v>2958465</v>
       </c>
-      <c r="AF22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG22" s="43">
+      <c r="AF22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG22" s="33">
         <v>0</v>
       </c>
-      <c r="AH22" s="31">
+      <c r="AH22" s="32">
         <v>0</v>
       </c>
-      <c r="AI22" s="31">
+      <c r="AI22" s="32">
         <v>1</v>
       </c>
-      <c r="AJ22" s="31">
+      <c r="AJ22" s="32">
         <v>1</v>
       </c>
-      <c r="AK22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN22" s="31">
+      <c r="AK22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN22" s="32">
         <v>1</v>
       </c>
-      <c r="AO22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP22" s="31">
+      <c r="AO22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP22" s="32">
         <v>1</v>
       </c>
-      <c r="AQ22" s="31">
+      <c r="AQ22" s="32">
         <v>1</v>
       </c>
-      <c r="AR22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV22" s="31">
+      <c r="AR22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV22" s="32">
         <v>1</v>
       </c>
-      <c r="AW22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY22" s="31">
+      <c r="AW22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY22" s="32">
         <v>1</v>
       </c>
-      <c r="AZ22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP22" s="31">
+      <c r="AZ22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP22" s="32">
         <v>0</v>
       </c>
-      <c r="BQ22" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BS22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT22" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU22" s="43">
+      <c r="BQ22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT22" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU22" s="33">
         <v>6</v>
       </c>
-      <c r="BV22" s="31">
+      <c r="BV22" s="32">
         <v>1</v>
       </c>
     </row>
     <row r="23" customFormat="1" ht="13.5" spans="1:74">
-      <c r="A23" s="39"/>
-      <c r="B23" s="31">
+      <c r="A23" s="27"/>
+      <c r="B23" s="32">
         <v>43087.3815972222</v>
       </c>
-      <c r="C23" s="31">
+      <c r="C23" s="32">
         <v>43087.3815972222</v>
       </c>
-      <c r="D23" s="31">
+      <c r="D23" s="32">
         <v>0</v>
       </c>
-      <c r="E23" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="F23" s="31">
+      <c r="E23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" s="32">
         <v>105037</v>
       </c>
-      <c r="G23" s="31" t="s">
+      <c r="G23" s="32" t="s">
         <v>112</v>
       </c>
-      <c r="H23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="I23" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J23" s="31">
+      <c r="H23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="32">
         <v>13</v>
       </c>
-      <c r="K23" s="31" t="s">
+      <c r="K23" s="32" t="s">
         <v>93</v>
       </c>
-      <c r="L23" s="31">
+      <c r="L23" s="32">
         <v>13110</v>
       </c>
-      <c r="M23" s="43" t="s">
+      <c r="M23" s="33" t="s">
         <v>108</v>
       </c>
-      <c r="N23" s="31" t="s">
+      <c r="N23" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="O23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="P23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q23" s="43">
+      <c r="O23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q23" s="33">
         <v>139.7193674</v>
       </c>
-      <c r="R23" s="31">
+      <c r="R23" s="32">
         <v>35.5621012</v>
       </c>
-      <c r="S23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="T23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="U23" s="43">
+      <c r="S23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="T23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="U23" s="33">
         <v>0</v>
       </c>
-      <c r="V23" s="31">
+      <c r="V23" s="32">
         <v>0</v>
       </c>
-      <c r="W23" s="31">
+      <c r="W23" s="32">
         <v>0</v>
       </c>
-      <c r="X23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y23" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC23" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD23" s="31">
+      <c r="X23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD23" s="32">
         <v>5</v>
       </c>
-      <c r="AE23" s="31">
+      <c r="AE23" s="32">
         <v>2958465</v>
       </c>
-      <c r="AF23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG23" s="43">
+      <c r="AF23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG23" s="33">
         <v>0</v>
       </c>
-      <c r="AH23" s="31">
+      <c r="AH23" s="32">
         <v>0</v>
       </c>
-      <c r="AI23" s="31">
+      <c r="AI23" s="32">
         <v>1</v>
       </c>
-      <c r="AJ23" s="31">
+      <c r="AJ23" s="32">
         <v>1</v>
       </c>
-      <c r="AK23" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN23" s="31">
+      <c r="AK23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN23" s="32">
         <v>1</v>
       </c>
-      <c r="AO23" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP23" s="31">
+      <c r="AO23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP23" s="32">
         <v>1</v>
       </c>
-      <c r="AQ23" s="31">
+      <c r="AQ23" s="32">
         <v>1</v>
       </c>
-      <c r="AR23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS23" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV23" s="31">
+      <c r="AR23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV23" s="32">
         <v>1</v>
       </c>
-      <c r="AW23" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY23" s="31">
+      <c r="AW23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY23" s="32">
         <v>1</v>
       </c>
-      <c r="AZ23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA23" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE23" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI23" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM23" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP23" s="31">
+      <c r="AZ23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP23" s="32">
         <v>0</v>
       </c>
-      <c r="BQ23" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BS23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT23" s="31" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU23" s="43">
+      <c r="BQ23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT23" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU23" s="33">
         <v>6</v>
       </c>
-      <c r="BV23" s="31">
+      <c r="BV23" s="32">
         <v>1</v>
       </c>
     </row>
@@ -3948,7 +4006,7 @@
       <c r="G27" s="23"/>
     </row>
     <row r="28" s="23" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B28" s="23" t="s">
@@ -3956,512 +4014,512 @@
       </c>
     </row>
     <row r="29" s="23" customFormat="1" spans="2:19">
-      <c r="B29" s="44" t="s">
+      <c r="B29" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="C29" s="45" t="s">
+      <c r="C29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D29" s="45" t="s">
+      <c r="D29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E29" s="45" t="s">
+      <c r="E29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="F29" s="45" t="s">
+      <c r="F29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="G29" s="45" t="s">
+      <c r="G29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="H29" s="45" t="s">
+      <c r="H29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I29" s="45" t="s">
+      <c r="I29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="J29" s="45" t="s">
+      <c r="J29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="K29" s="45" t="s">
+      <c r="K29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="L29" s="45" t="s">
+      <c r="L29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="M29" s="45" t="s">
+      <c r="M29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="N29" s="45" t="s">
+      <c r="N29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="O29" s="45" t="s">
+      <c r="O29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="P29" s="45" t="s">
+      <c r="P29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="Q29" s="45" t="s">
+      <c r="Q29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="R29" s="45" t="s">
+      <c r="R29" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="S29" s="45" t="s">
+      <c r="S29" s="36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="30" s="23" customFormat="1" spans="2:19">
-      <c r="B30" s="28" t="s">
+      <c r="B30" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C30" s="27" t="s">
+      <c r="C30" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D30" s="27" t="s">
+      <c r="D30" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E30" s="27" t="s">
+      <c r="E30" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F30" s="27" t="s">
+      <c r="F30" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G30" s="27" t="s">
+      <c r="G30" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="H30" s="27" t="s">
+      <c r="H30" s="38" t="s">
         <v>119</v>
       </c>
-      <c r="I30" s="27" t="s">
+      <c r="I30" s="38" t="s">
         <v>120</v>
       </c>
-      <c r="J30" s="27" t="s">
+      <c r="J30" s="38" t="s">
         <v>121</v>
       </c>
-      <c r="K30" s="27" t="s">
+      <c r="K30" s="38" t="s">
         <v>122</v>
       </c>
-      <c r="L30" s="27" t="s">
+      <c r="L30" s="38" t="s">
         <v>123</v>
       </c>
-      <c r="M30" s="27" t="s">
+      <c r="M30" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="N30" s="27" t="s">
+      <c r="N30" s="38" t="s">
         <v>124</v>
       </c>
-      <c r="O30" s="27" t="s">
+      <c r="O30" s="38" t="s">
         <v>125</v>
       </c>
-      <c r="P30" s="27" t="s">
+      <c r="P30" s="38" t="s">
         <v>126</v>
       </c>
-      <c r="Q30" s="27" t="s">
+      <c r="Q30" s="38" t="s">
         <v>127</v>
       </c>
-      <c r="R30" s="27" t="s">
+      <c r="R30" s="38" t="s">
         <v>128</v>
       </c>
-      <c r="S30" s="27" t="s">
+      <c r="S30" s="38" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="31" s="23" customFormat="1" spans="2:19">
-      <c r="B31" s="31" t="s">
+      <c r="B31" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C31" s="31" t="s">
+      <c r="C31" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D31" s="31" t="s">
+      <c r="D31" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E31" s="31" t="s">
+      <c r="E31" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F31" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G31" s="31" t="s">
+      <c r="F31" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="32" t="s">
         <v>131</v>
       </c>
-      <c r="H31" s="31" t="s">
+      <c r="H31" s="32" t="s">
         <v>132</v>
       </c>
-      <c r="I31" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J31" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="K31" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L31" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="M31" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="N31" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="O31" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="P31" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q31" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="R31" s="31" t="s">
+      <c r="I31" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J31" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K31" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L31" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M31" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N31" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O31" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P31" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q31" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R31" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="S31" s="43" t="s">
+      <c r="S31" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="32" s="23" customFormat="1" spans="2:19">
-      <c r="B32" s="31" t="s">
+      <c r="B32" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C32" s="31" t="s">
+      <c r="C32" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D32" s="31" t="s">
+      <c r="D32" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E32" s="31" t="s">
+      <c r="E32" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F32" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G32" s="31" t="s">
+      <c r="F32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G32" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="H32" s="31" t="s">
+      <c r="H32" s="32" t="s">
         <v>135</v>
       </c>
-      <c r="I32" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J32" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="K32" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L32" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="M32" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="N32" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="O32" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="P32" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q32" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="R32" s="31" t="s">
+      <c r="I32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q32" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R32" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="S32" s="43" t="s">
+      <c r="S32" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="33" s="23" customFormat="1" spans="2:19">
-      <c r="B33" s="31" t="s">
+      <c r="B33" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C33" s="31" t="s">
+      <c r="C33" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D33" s="31" t="s">
+      <c r="D33" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E33" s="31" t="s">
+      <c r="E33" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F33" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G33" s="31" t="s">
+      <c r="F33" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G33" s="32" t="s">
         <v>137</v>
       </c>
-      <c r="H33" s="31" t="s">
+      <c r="H33" s="32" t="s">
         <v>138</v>
       </c>
-      <c r="I33" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J33" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="K33" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L33" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="M33" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="N33" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="O33" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="P33" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q33" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="R33" s="31" t="s">
+      <c r="I33" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J33" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K33" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L33" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M33" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N33" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O33" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P33" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q33" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R33" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="S33" s="43" t="s">
+      <c r="S33" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="34" s="23" customFormat="1" spans="2:19">
-      <c r="B34" s="31" t="s">
+      <c r="B34" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C34" s="31" t="s">
+      <c r="C34" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D34" s="31" t="s">
+      <c r="D34" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E34" s="31" t="s">
+      <c r="E34" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F34" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G34" s="31" t="s">
+      <c r="F34" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G34" s="32" t="s">
         <v>140</v>
       </c>
-      <c r="H34" s="31" t="s">
+      <c r="H34" s="32" t="s">
         <v>141</v>
       </c>
-      <c r="I34" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J34" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="K34" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L34" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="M34" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="N34" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="O34" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="P34" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q34" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="R34" s="31" t="s">
+      <c r="I34" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J34" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K34" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L34" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M34" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N34" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O34" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P34" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q34" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R34" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="S34" s="43" t="s">
+      <c r="S34" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="35" s="23" customFormat="1" spans="2:19">
-      <c r="B35" s="31" t="s">
+      <c r="B35" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C35" s="31" t="s">
+      <c r="C35" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D35" s="31" t="s">
+      <c r="D35" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E35" s="31" t="s">
+      <c r="E35" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F35" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G35" s="31" t="s">
+      <c r="F35" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G35" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="H35" s="31" t="s">
+      <c r="H35" s="32" t="s">
         <v>145</v>
       </c>
-      <c r="I35" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J35" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="K35" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L35" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="M35" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="N35" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="O35" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="P35" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q35" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="R35" s="31" t="s">
+      <c r="I35" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J35" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K35" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L35" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M35" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N35" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O35" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P35" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q35" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R35" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="S35" s="43" t="s">
+      <c r="S35" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="36" s="23" customFormat="1" spans="2:19">
-      <c r="B36" s="31" t="s">
+      <c r="B36" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C36" s="31" t="s">
+      <c r="C36" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D36" s="31" t="s">
+      <c r="D36" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E36" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F36" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G36" s="31" t="s">
+      <c r="F36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G36" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="H36" s="31" t="s">
+      <c r="H36" s="32" t="s">
         <v>146</v>
       </c>
-      <c r="I36" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J36" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="K36" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L36" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="M36" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="N36" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="O36" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="P36" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q36" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="R36" s="31" t="s">
+      <c r="I36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q36" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R36" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="S36" s="43" t="s">
+      <c r="S36" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="37" s="23" customFormat="1" spans="2:19">
-      <c r="B37" s="31" t="s">
+      <c r="B37" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C37" s="31" t="s">
+      <c r="C37" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D37" s="31" t="s">
+      <c r="D37" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E37" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F37" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G37" s="31" t="s">
+      <c r="F37" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="H37" s="31" t="s">
+      <c r="H37" s="32" t="s">
         <v>149</v>
       </c>
-      <c r="I37" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J37" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="K37" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L37" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="M37" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="N37" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="O37" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="P37" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q37" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="R37" s="31" t="s">
+      <c r="I37" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J37" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K37" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L37" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M37" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N37" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O37" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P37" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q37" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R37" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="S37" s="43" t="s">
+      <c r="S37" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="38" s="23" customFormat="1"/>
     <row r="40" ht="14.25" spans="1:7">
-      <c r="A40" s="37" t="s">
+      <c r="A40" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B40" s="23" t="s">
@@ -4474,69 +4532,69 @@
       <c r="G40" s="23"/>
     </row>
     <row r="41" spans="2:7">
-      <c r="B41" s="44" t="s">
+      <c r="B41" s="35" t="s">
         <v>151</v>
       </c>
-      <c r="C41" s="45" t="s">
+      <c r="C41" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D41" s="45" t="s">
+      <c r="D41" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E41" s="45" t="s">
+      <c r="E41" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="F41" s="45" t="s">
+      <c r="F41" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="G41" s="45" t="s">
+      <c r="G41" s="36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="42" spans="1:7">
       <c r="A42" s="23"/>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C42" s="27" t="s">
+      <c r="C42" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D42" s="27" t="s">
+      <c r="D42" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E42" s="27" t="s">
+      <c r="E42" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F42" s="27" t="s">
+      <c r="F42" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G42" s="27" t="s">
+      <c r="G42" s="38" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="43" spans="1:7">
       <c r="A43" s="23"/>
-      <c r="B43" s="31" t="s">
+      <c r="B43" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C43" s="31" t="s">
+      <c r="C43" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D43" s="31" t="s">
+      <c r="D43" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E43" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F43" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G43" s="31" t="s">
+      <c r="F43" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="32" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="46" ht="14.25" spans="1:10">
-      <c r="A46" s="37" t="s">
+      <c r="A46" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B46" s="23" t="s">
@@ -4552,276 +4610,276 @@
       <c r="J46" s="23"/>
     </row>
     <row r="47" spans="2:10">
-      <c r="B47" s="44" t="s">
+      <c r="B47" s="35" t="s">
         <v>154</v>
       </c>
-      <c r="C47" s="45" t="s">
+      <c r="C47" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D47" s="45" t="s">
+      <c r="D47" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E47" s="45" t="s">
+      <c r="E47" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="F47" s="45" t="s">
+      <c r="F47" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="G47" s="45" t="s">
+      <c r="G47" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="H47" s="45" t="s">
+      <c r="H47" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I47" s="45" t="s">
+      <c r="I47" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="J47" s="45" t="s">
+      <c r="J47" s="36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="48" spans="1:10">
       <c r="A48" s="23"/>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C48" s="27" t="s">
+      <c r="C48" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D48" s="27" t="s">
+      <c r="D48" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E48" s="27" t="s">
+      <c r="E48" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F48" s="27" t="s">
+      <c r="F48" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G48" s="27" t="s">
+      <c r="G48" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="H48" s="27" t="s">
+      <c r="H48" s="38" t="s">
         <v>43</v>
       </c>
-      <c r="I48" s="27" t="s">
+      <c r="I48" s="38" t="s">
         <v>155</v>
       </c>
-      <c r="J48" s="27" t="s">
+      <c r="J48" s="38" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="49" spans="1:10">
       <c r="A49" s="23"/>
-      <c r="B49" s="31" t="s">
+      <c r="B49" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C49" s="31" t="s">
+      <c r="C49" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D49" s="31" t="s">
+      <c r="D49" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E49" s="31" t="s">
+      <c r="E49" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F49" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G49" s="31" t="s">
+      <c r="F49" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="H49" s="31" t="s">
+      <c r="H49" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I49" s="31" t="s">
+      <c r="I49" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J49" s="31" t="s">
+      <c r="J49" s="32" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="50" spans="1:10">
       <c r="A50" s="23"/>
-      <c r="B50" s="31" t="s">
+      <c r="B50" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C50" s="31" t="s">
+      <c r="C50" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D50" s="31" t="s">
+      <c r="D50" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E50" s="31" t="s">
+      <c r="E50" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F50" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G50" s="31" t="s">
+      <c r="F50" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="H50" s="31" t="s">
+      <c r="H50" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I50" s="31" t="s">
+      <c r="I50" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J50" s="31" t="s">
+      <c r="J50" s="32" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="51" spans="1:10">
       <c r="A51" s="23"/>
-      <c r="B51" s="31" t="s">
+      <c r="B51" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C51" s="31" t="s">
+      <c r="C51" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D51" s="31" t="s">
+      <c r="D51" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E51" s="31" t="s">
+      <c r="E51" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F51" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G51" s="31" t="s">
+      <c r="F51" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="H51" s="31" t="s">
+      <c r="H51" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I51" s="31" t="s">
+      <c r="I51" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J51" s="31" t="s">
+      <c r="J51" s="32" t="s">
         <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:10">
       <c r="A52" s="23"/>
-      <c r="B52" s="31" t="s">
+      <c r="B52" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="C52" s="31" t="s">
+      <c r="C52" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="D52" s="31" t="s">
+      <c r="D52" s="32" t="s">
         <v>130</v>
       </c>
-      <c r="E52" s="31" t="s">
+      <c r="E52" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F52" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G52" s="31" t="s">
+      <c r="F52" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G52" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="H52" s="31" t="s">
+      <c r="H52" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I52" s="31" t="s">
+      <c r="I52" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J52" s="31" t="s">
+      <c r="J52" s="32" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="53" spans="1:10">
       <c r="A53" s="23"/>
-      <c r="B53" s="31" t="s">
+      <c r="B53" s="32" t="s">
         <v>142</v>
       </c>
-      <c r="C53" s="31" t="s">
+      <c r="C53" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D53" s="31" t="s">
+      <c r="D53" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E53" s="31" t="s">
+      <c r="E53" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F53" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G53" s="31" t="s">
+      <c r="F53" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G53" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="H53" s="31" t="s">
+      <c r="H53" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I53" s="31" t="s">
+      <c r="I53" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J53" s="31" t="s">
+      <c r="J53" s="32" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:10">
       <c r="A54" s="23"/>
-      <c r="B54" s="31" t="s">
+      <c r="B54" s="32" t="s">
         <v>101</v>
       </c>
-      <c r="C54" s="31" t="s">
+      <c r="C54" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D54" s="31" t="s">
+      <c r="D54" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E54" s="31" t="s">
+      <c r="E54" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F54" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G54" s="31" t="s">
+      <c r="F54" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G54" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="H54" s="31" t="s">
+      <c r="H54" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I54" s="31" t="s">
+      <c r="I54" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J54" s="31" t="s">
+      <c r="J54" s="32" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="55" spans="1:10">
       <c r="A55" s="23"/>
-      <c r="B55" s="31" t="s">
+      <c r="B55" s="32" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="31" t="s">
+      <c r="C55" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="D55" s="31" t="s">
+      <c r="D55" s="32" t="s">
         <v>143</v>
       </c>
-      <c r="E55" s="31" t="s">
+      <c r="E55" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F55" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G55" s="31" t="s">
+      <c r="F55" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G55" s="32" t="s">
         <v>157</v>
       </c>
-      <c r="H55" s="31" t="s">
+      <c r="H55" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="I55" s="31" t="s">
+      <c r="I55" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="J55" s="31" t="s">
+      <c r="J55" s="32" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="58" s="23" customFormat="1" ht="14.25" spans="1:2">
-      <c r="A58" s="37" t="s">
+      <c r="A58" s="34" t="s">
         <v>11</v>
       </c>
       <c r="B58" s="23" t="s">
@@ -4829,192 +4887,192 @@
       </c>
     </row>
     <row r="59" s="23" customFormat="1" spans="2:13">
-      <c r="B59" s="44" t="s">
+      <c r="B59" s="35" t="s">
         <v>160</v>
       </c>
-      <c r="C59" s="45" t="s">
+      <c r="C59" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="D59" s="45" t="s">
+      <c r="D59" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="E59" s="45" t="s">
+      <c r="E59" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="F59" s="45" t="s">
+      <c r="F59" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="G59" s="45" t="s">
+      <c r="G59" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="H59" s="45" t="s">
+      <c r="H59" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="I59" s="45" t="s">
+      <c r="I59" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="J59" s="45" t="s">
+      <c r="J59" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="K59" s="45" t="s">
+      <c r="K59" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="L59" s="45" t="s">
+      <c r="L59" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="M59" s="45" t="s">
+      <c r="M59" s="36" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="60" s="23" customFormat="1" spans="2:13">
-      <c r="B60" s="28" t="s">
+      <c r="B60" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C60" s="27" t="s">
+      <c r="C60" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="D60" s="27" t="s">
+      <c r="D60" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="E60" s="27" t="s">
+      <c r="E60" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="F60" s="27" t="s">
+      <c r="F60" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="G60" s="27" t="s">
+      <c r="G60" s="38" t="s">
         <v>19</v>
       </c>
-      <c r="H60" s="27" t="s">
+      <c r="H60" s="38" t="s">
         <v>161</v>
       </c>
-      <c r="I60" s="27" t="s">
+      <c r="I60" s="38" t="s">
         <v>162</v>
       </c>
-      <c r="J60" s="27" t="s">
+      <c r="J60" s="38" t="s">
         <v>163</v>
       </c>
-      <c r="K60" s="27" t="s">
+      <c r="K60" s="38" t="s">
         <v>164</v>
       </c>
-      <c r="L60" s="27" t="s">
+      <c r="L60" s="38" t="s">
         <v>165</v>
       </c>
-      <c r="M60" s="27" t="s">
+      <c r="M60" s="38" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="61" s="23" customFormat="1" spans="2:13">
-      <c r="B61" s="31" t="s">
+      <c r="B61" s="32" t="s">
         <v>99</v>
       </c>
-      <c r="C61" s="31" t="s">
+      <c r="C61" s="32" t="s">
         <v>166</v>
       </c>
-      <c r="D61" s="31" t="s">
+      <c r="D61" s="32" t="s">
         <v>167</v>
       </c>
-      <c r="E61" s="31" t="s">
+      <c r="E61" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F61" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G61" s="31" t="s">
+      <c r="F61" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G61" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="H61" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="I61" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J61" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="K61" s="31" t="s">
+      <c r="H61" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I61" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J61" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K61" s="32" t="s">
         <v>169</v>
       </c>
-      <c r="L61" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="M61" s="43" t="s">
+      <c r="L61" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M61" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="62" s="23" customFormat="1" spans="2:13">
-      <c r="B62" s="31" t="s">
+      <c r="B62" s="32" t="s">
         <v>133</v>
       </c>
-      <c r="C62" s="31" t="s">
+      <c r="C62" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="D62" s="31" t="s">
+      <c r="D62" s="32" t="s">
         <v>170</v>
       </c>
-      <c r="E62" s="31" t="s">
+      <c r="E62" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F62" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G62" s="31" t="s">
+      <c r="F62" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G62" s="32" t="s">
         <v>171</v>
       </c>
-      <c r="H62" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="I62" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J62" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="K62" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L62" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="M62" s="43" t="s">
+      <c r="H62" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I62" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J62" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K62" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L62" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M62" s="33" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="63" s="23" customFormat="1" spans="2:13">
-      <c r="B63" s="31" t="s">
+      <c r="B63" s="32" t="s">
         <v>136</v>
       </c>
-      <c r="C63" s="31" t="s">
+      <c r="C63" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="D63" s="31" t="s">
+      <c r="D63" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="E63" s="31" t="s">
+      <c r="E63" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="F63" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="G63" s="31" t="s">
+      <c r="F63" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G63" s="32" t="s">
         <v>173</v>
       </c>
-      <c r="H63" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="I63" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="J63" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="K63" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="L63" s="43" t="s">
-        <v>89</v>
-      </c>
-      <c r="M63" s="43" t="s">
+      <c r="H63" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I63" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J63" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K63" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L63" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M63" s="33" t="s">
         <v>89</v>
       </c>
     </row>
@@ -5049,7 +5107,7 @@
       <c r="A1" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5078,13 +5136,13 @@
     </row>
     <row r="9" s="17" customFormat="1" customHeight="1" spans="1:4">
       <c r="A9" s="18"/>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="39" t="s">
         <v>179</v>
       </c>
-      <c r="C9" s="35" t="s">
+      <c r="C9" s="39" t="s">
         <v>180</v>
       </c>
-      <c r="D9" s="35" t="s">
+      <c r="D9" s="39" t="s">
         <v>181</v>
       </c>
     </row>
@@ -5128,619 +5186,3102 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:BV8"/>
+  <dimension ref="A1:BV165"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G52" sqref="G52"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="I146" sqref="I146"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="1" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" s="22" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
-      <c r="A2" s="24" t="s">
+    <row r="1" s="17" customFormat="1" ht="12" spans="1:7">
+      <c r="A1" s="23"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+    </row>
+    <row r="2" customFormat="1" spans="1:7">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+    </row>
+    <row r="3" s="22" customFormat="1" ht="12.75" customHeight="1" spans="1:2">
+      <c r="A3" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="22" t="s">
+      <c r="B3" s="22" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="3" s="22" customFormat="1" spans="2:71">
-      <c r="B3" s="25" t="s">
+    <row r="4" s="22" customFormat="1" spans="2:71">
+      <c r="B4" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="26"/>
-      <c r="D3" s="26"/>
-      <c r="E3" s="26"/>
-      <c r="F3" s="26"/>
-      <c r="G3" s="26"/>
-      <c r="H3" s="26"/>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
-      <c r="K3" s="26"/>
-      <c r="L3" s="26"/>
-      <c r="M3" s="26"/>
-      <c r="N3" s="26"/>
-      <c r="O3" s="26"/>
-      <c r="P3" s="26"/>
-      <c r="Q3" s="26"/>
-      <c r="R3" s="26"/>
-      <c r="S3" s="26"/>
-      <c r="T3" s="26"/>
-      <c r="U3" s="26"/>
-      <c r="V3" s="26"/>
-      <c r="W3" s="26"/>
-      <c r="X3" s="26"/>
-      <c r="Y3" s="26"/>
-      <c r="Z3" s="26"/>
-      <c r="AA3" s="26"/>
-      <c r="AB3" s="26"/>
-      <c r="AC3" s="26"/>
-      <c r="AD3" s="26"/>
-      <c r="AE3" s="26"/>
-      <c r="AF3" s="26"/>
-      <c r="AG3" s="26"/>
-      <c r="AH3" s="26"/>
-      <c r="AI3" s="26"/>
-      <c r="AJ3" s="26"/>
-      <c r="AK3" s="26"/>
-      <c r="AL3" s="26"/>
-      <c r="AM3" s="26"/>
-      <c r="AN3" s="26"/>
-      <c r="AO3" s="26"/>
-      <c r="AP3" s="26"/>
-      <c r="AQ3" s="26"/>
-      <c r="AR3" s="26"/>
-      <c r="AS3" s="26"/>
-      <c r="AT3" s="26"/>
-      <c r="AU3" s="26"/>
-      <c r="AV3" s="26"/>
-      <c r="AW3" s="26"/>
-      <c r="AX3" s="26"/>
-      <c r="AY3" s="26"/>
-      <c r="AZ3" s="26"/>
-      <c r="BA3" s="26"/>
-      <c r="BB3" s="26"/>
-      <c r="BC3" s="26"/>
-      <c r="BD3" s="26"/>
-      <c r="BE3" s="26"/>
-      <c r="BF3" s="26"/>
-      <c r="BG3" s="26"/>
-      <c r="BH3" s="26"/>
-      <c r="BI3" s="26"/>
-      <c r="BJ3" s="26"/>
-      <c r="BK3" s="26"/>
-      <c r="BL3" s="26"/>
-      <c r="BM3" s="26"/>
-      <c r="BN3" s="26"/>
-      <c r="BO3" s="26"/>
-      <c r="BP3" s="26"/>
-      <c r="BQ3" s="26"/>
-      <c r="BR3" s="26"/>
-      <c r="BS3" s="26"/>
-    </row>
-    <row r="4" s="22" customFormat="1" spans="2:74">
-      <c r="B4" s="27" t="s">
+      <c r="C4" s="26"/>
+      <c r="D4" s="26"/>
+      <c r="E4" s="26"/>
+      <c r="F4" s="26"/>
+      <c r="G4" s="26"/>
+      <c r="H4" s="26"/>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+      <c r="K4" s="26"/>
+      <c r="L4" s="26"/>
+      <c r="M4" s="26"/>
+      <c r="N4" s="26"/>
+      <c r="O4" s="26"/>
+      <c r="P4" s="26"/>
+      <c r="Q4" s="26"/>
+      <c r="R4" s="26"/>
+      <c r="S4" s="26"/>
+      <c r="T4" s="26"/>
+      <c r="U4" s="26"/>
+      <c r="V4" s="26"/>
+      <c r="W4" s="26"/>
+      <c r="X4" s="26"/>
+      <c r="Y4" s="26"/>
+      <c r="Z4" s="26"/>
+      <c r="AA4" s="26"/>
+      <c r="AB4" s="26"/>
+      <c r="AC4" s="26"/>
+      <c r="AD4" s="26"/>
+      <c r="AE4" s="26"/>
+      <c r="AF4" s="26"/>
+      <c r="AG4" s="26"/>
+      <c r="AH4" s="26"/>
+      <c r="AI4" s="26"/>
+      <c r="AJ4" s="26"/>
+      <c r="AK4" s="26"/>
+      <c r="AL4" s="26"/>
+      <c r="AM4" s="26"/>
+      <c r="AN4" s="26"/>
+      <c r="AO4" s="26"/>
+      <c r="AP4" s="26"/>
+      <c r="AQ4" s="26"/>
+      <c r="AR4" s="26"/>
+      <c r="AS4" s="26"/>
+      <c r="AT4" s="26"/>
+      <c r="AU4" s="26"/>
+      <c r="AV4" s="26"/>
+      <c r="AW4" s="26"/>
+      <c r="AX4" s="26"/>
+      <c r="AY4" s="26"/>
+      <c r="AZ4" s="26"/>
+      <c r="BA4" s="26"/>
+      <c r="BB4" s="26"/>
+      <c r="BC4" s="26"/>
+      <c r="BD4" s="26"/>
+      <c r="BE4" s="26"/>
+      <c r="BF4" s="26"/>
+      <c r="BG4" s="26"/>
+      <c r="BH4" s="26"/>
+      <c r="BI4" s="26"/>
+      <c r="BJ4" s="26"/>
+      <c r="BK4" s="26"/>
+      <c r="BL4" s="26"/>
+      <c r="BM4" s="26"/>
+      <c r="BN4" s="26"/>
+      <c r="BO4" s="26"/>
+      <c r="BP4" s="26"/>
+      <c r="BQ4" s="26"/>
+      <c r="BR4" s="26"/>
+      <c r="BS4" s="26"/>
+    </row>
+    <row r="5" s="22" customFormat="1" spans="1:74">
+      <c r="A5" s="27"/>
+      <c r="B5" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="27" t="s">
+      <c r="C5" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="27" t="s">
+      <c r="D5" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="27" t="s">
+      <c r="E5" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="28" t="s">
+      <c r="F5" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="27" t="s">
+      <c r="G5" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="27" t="s">
+      <c r="H5" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="27" t="s">
+      <c r="I5" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J5" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="K4" s="27" t="s">
+      <c r="K5" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="27" t="s">
+      <c r="L5" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M5" s="29" t="s">
         <v>25</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O4" s="27" t="s">
+      <c r="O5" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="27" t="s">
+      <c r="P5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Q4" s="27" t="s">
+      <c r="Q5" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="R4" s="27" t="s">
+      <c r="R5" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="S5" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="T4" s="27" t="s">
+      <c r="T5" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="U4" s="27" t="s">
+      <c r="U5" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="V4" s="27" t="s">
+      <c r="V5" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="W4" s="27" t="s">
+      <c r="W5" s="29" t="s">
         <v>35</v>
       </c>
-      <c r="X4" s="27" t="s">
+      <c r="X5" s="29" t="s">
         <v>36</v>
       </c>
-      <c r="Y4" s="27" t="s">
+      <c r="Y5" s="29" t="s">
         <v>37</v>
       </c>
-      <c r="Z4" s="27" t="s">
+      <c r="Z5" s="29" t="s">
         <v>38</v>
       </c>
-      <c r="AA4" s="27" t="s">
+      <c r="AA5" s="29" t="s">
         <v>39</v>
       </c>
-      <c r="AB4" s="27" t="s">
+      <c r="AB5" s="29" t="s">
         <v>40</v>
       </c>
-      <c r="AC4" s="27" t="s">
+      <c r="AC5" s="29" t="s">
         <v>41</v>
       </c>
-      <c r="AD4" s="27" t="s">
+      <c r="AD5" s="29" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="27" t="s">
+      <c r="AE5" s="29" t="s">
         <v>43</v>
       </c>
-      <c r="AF4" s="27" t="s">
+      <c r="AF5" s="29" t="s">
         <v>44</v>
       </c>
-      <c r="AG4" s="27" t="s">
+      <c r="AG5" s="29" t="s">
         <v>45</v>
       </c>
-      <c r="AH4" s="27" t="s">
+      <c r="AH5" s="29" t="s">
         <v>46</v>
       </c>
-      <c r="AI4" s="27" t="s">
+      <c r="AI5" s="29" t="s">
         <v>47</v>
       </c>
-      <c r="AJ4" s="27" t="s">
+      <c r="AJ5" s="29" t="s">
         <v>48</v>
       </c>
-      <c r="AK4" s="27" t="s">
+      <c r="AK5" s="29" t="s">
         <v>49</v>
       </c>
-      <c r="AL4" s="27" t="s">
+      <c r="AL5" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="AM4" s="27" t="s">
+      <c r="AM5" s="29" t="s">
         <v>51</v>
       </c>
-      <c r="AN4" s="27" t="s">
+      <c r="AN5" s="29" t="s">
         <v>52</v>
       </c>
-      <c r="AO4" s="27" t="s">
+      <c r="AO5" s="29" t="s">
         <v>53</v>
       </c>
-      <c r="AP4" s="27" t="s">
+      <c r="AP5" s="29" t="s">
         <v>54</v>
       </c>
-      <c r="AQ4" s="27" t="s">
+      <c r="AQ5" s="29" t="s">
         <v>55</v>
       </c>
-      <c r="AR4" s="27" t="s">
+      <c r="AR5" s="29" t="s">
         <v>56</v>
       </c>
-      <c r="AS4" s="27" t="s">
+      <c r="AS5" s="29" t="s">
         <v>57</v>
       </c>
-      <c r="AT4" s="27" t="s">
+      <c r="AT5" s="29" t="s">
         <v>58</v>
       </c>
-      <c r="AU4" s="27" t="s">
+      <c r="AU5" s="29" t="s">
         <v>59</v>
       </c>
-      <c r="AV4" s="27" t="s">
+      <c r="AV5" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="AW4" s="27" t="s">
+      <c r="AW5" s="29" t="s">
         <v>61</v>
       </c>
-      <c r="AX4" s="27" t="s">
+      <c r="AX5" s="29" t="s">
         <v>62</v>
       </c>
-      <c r="AY4" s="27" t="s">
+      <c r="AY5" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="AZ4" s="27" t="s">
+      <c r="AZ5" s="29" t="s">
         <v>64</v>
       </c>
-      <c r="BA4" s="27" t="s">
+      <c r="BA5" s="29" t="s">
         <v>65</v>
       </c>
-      <c r="BB4" s="27" t="s">
+      <c r="BB5" s="29" t="s">
         <v>66</v>
       </c>
-      <c r="BC4" s="27" t="s">
+      <c r="BC5" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="BD4" s="27" t="s">
+      <c r="BD5" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="BE4" s="27" t="s">
+      <c r="BE5" s="29" t="s">
         <v>69</v>
       </c>
-      <c r="BF4" s="27" t="s">
+      <c r="BF5" s="29" t="s">
         <v>70</v>
       </c>
-      <c r="BG4" s="27" t="s">
+      <c r="BG5" s="29" t="s">
         <v>71</v>
       </c>
-      <c r="BH4" s="27" t="s">
+      <c r="BH5" s="29" t="s">
         <v>72</v>
       </c>
-      <c r="BI4" s="27" t="s">
+      <c r="BI5" s="29" t="s">
         <v>73</v>
       </c>
-      <c r="BJ4" s="27" t="s">
+      <c r="BJ5" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="BK4" s="27" t="s">
+      <c r="BK5" s="29" t="s">
         <v>75</v>
       </c>
-      <c r="BL4" s="27" t="s">
+      <c r="BL5" s="29" t="s">
         <v>76</v>
       </c>
-      <c r="BM4" s="27" t="s">
+      <c r="BM5" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="BN4" s="27" t="s">
+      <c r="BN5" s="29" t="s">
         <v>78</v>
       </c>
-      <c r="BO4" s="27" t="s">
+      <c r="BO5" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="BP4" s="27" t="s">
+      <c r="BP5" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="BQ4" s="27" t="s">
+      <c r="BQ5" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="BR4" s="27" t="s">
+      <c r="BR5" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="BS4" s="27" t="s">
+      <c r="BS5" s="29" t="s">
         <v>83</v>
       </c>
-      <c r="BT4" s="27" t="s">
+      <c r="BT5" s="29" t="s">
         <v>84</v>
       </c>
-      <c r="BU4" s="27" t="s">
+      <c r="BU5" s="29" t="s">
         <v>85</v>
       </c>
-      <c r="BV4" s="27" t="s">
+      <c r="BV5" s="29" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="5" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:74">
-      <c r="A5" s="29"/>
-      <c r="B5" s="30" t="s">
+    <row r="6" s="22" customFormat="1" ht="16.5" customHeight="1" spans="1:74">
+      <c r="A6" s="31"/>
+      <c r="B6" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F6" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="G6" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="H6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="32" t="s">
+        <v>92</v>
+      </c>
+      <c r="K6" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L6" s="32" t="s">
+        <v>94</v>
+      </c>
+      <c r="M6" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="N6" s="32" t="s">
+        <v>96</v>
+      </c>
+      <c r="O6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q6" s="33" t="s">
+        <v>97</v>
+      </c>
+      <c r="R6" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="T6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="V6" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="W6" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="X6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AE6" s="32" t="s">
+        <v>100</v>
+      </c>
+      <c r="AF6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG6" s="33" t="s">
+        <v>88</v>
+      </c>
+      <c r="AH6" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="AI6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AJ6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AK6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AO6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AQ6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AR6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AW6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY6" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="AZ6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP6" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="BQ6" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT6" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU6" s="33" t="s">
+        <v>101</v>
+      </c>
+      <c r="BV6" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="7" customFormat="1" spans="1:74">
+      <c r="A7" s="27"/>
+      <c r="B7" s="32">
+        <v>43087.3815856481</v>
+      </c>
+      <c r="C7" s="32">
+        <v>43087.3815856481</v>
+      </c>
+      <c r="D7" s="32">
+        <v>0</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F7" s="32">
+        <v>103417</v>
+      </c>
+      <c r="G7" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="H7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J7" s="32">
+        <v>13</v>
+      </c>
+      <c r="K7" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L7" s="32">
+        <v>13110</v>
+      </c>
+      <c r="M7" s="33" t="s">
+        <v>95</v>
+      </c>
+      <c r="N7" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="O7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7" s="33">
+        <v>139.6854343</v>
+      </c>
+      <c r="R7" s="32">
+        <v>35.781556</v>
+      </c>
+      <c r="S7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="T7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="U7" s="33">
+        <v>0</v>
+      </c>
+      <c r="V7" s="32">
+        <v>0</v>
+      </c>
+      <c r="W7" s="32">
+        <v>0</v>
+      </c>
+      <c r="X7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD7" s="32">
+        <v>2</v>
+      </c>
+      <c r="AE7" s="32">
+        <v>2958465</v>
+      </c>
+      <c r="AF7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AH7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AI7" s="32">
+        <v>1</v>
+      </c>
+      <c r="AJ7" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN7" s="32">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP7" s="32">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="32">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV7" s="32">
+        <v>1</v>
+      </c>
+      <c r="AW7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY7" s="32">
+        <v>1</v>
+      </c>
+      <c r="AZ7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP7" s="32">
+        <v>0</v>
+      </c>
+      <c r="BQ7" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT7" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU7" s="33">
+        <v>6</v>
+      </c>
+      <c r="BV7" s="32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" customFormat="1" spans="1:74">
+      <c r="A8" s="27"/>
+      <c r="B8" s="32">
+        <v>43087.3815856481</v>
+      </c>
+      <c r="C8" s="32">
+        <v>43087.3815856481</v>
+      </c>
+      <c r="D8" s="32">
+        <v>0</v>
+      </c>
+      <c r="E8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F8" s="32">
+        <v>104028</v>
+      </c>
+      <c r="G8" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="H8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" s="32">
+        <v>13</v>
+      </c>
+      <c r="K8" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L8" s="32">
+        <v>13110</v>
+      </c>
+      <c r="M8" s="33" t="s">
+        <v>105</v>
+      </c>
+      <c r="N8" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="O8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q8" s="33">
+        <v>139.8584456</v>
+      </c>
+      <c r="R8" s="32">
+        <v>35.657251</v>
+      </c>
+      <c r="S8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="T8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="U8" s="33">
+        <v>0</v>
+      </c>
+      <c r="V8" s="32">
+        <v>0</v>
+      </c>
+      <c r="W8" s="32">
+        <v>0</v>
+      </c>
+      <c r="X8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD8" s="32">
+        <v>4</v>
+      </c>
+      <c r="AE8" s="32">
+        <v>2958465</v>
+      </c>
+      <c r="AF8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG8" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH8" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI8" s="32">
+        <v>1</v>
+      </c>
+      <c r="AJ8" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN8" s="32">
+        <v>1</v>
+      </c>
+      <c r="AO8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP8" s="32">
+        <v>1</v>
+      </c>
+      <c r="AQ8" s="32">
+        <v>1</v>
+      </c>
+      <c r="AR8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV8" s="32">
+        <v>1</v>
+      </c>
+      <c r="AW8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY8" s="32">
+        <v>1</v>
+      </c>
+      <c r="AZ8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP8" s="32">
+        <v>0</v>
+      </c>
+      <c r="BQ8" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT8" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU8" s="33">
+        <v>6</v>
+      </c>
+      <c r="BV8" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" customFormat="1" spans="1:74">
+      <c r="A9" s="27"/>
+      <c r="B9" s="32">
+        <v>43087.3815856481</v>
+      </c>
+      <c r="C9" s="32">
+        <v>43087.3815856481</v>
+      </c>
+      <c r="D9" s="32">
+        <v>0</v>
+      </c>
+      <c r="E9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F9" s="32">
+        <v>105023</v>
+      </c>
+      <c r="G9" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="H9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J9" s="32">
+        <v>13</v>
+      </c>
+      <c r="K9" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L9" s="32">
+        <v>13110</v>
+      </c>
+      <c r="M9" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="N9" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="O9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q9" s="33">
+        <v>139.721395</v>
+      </c>
+      <c r="R9" s="32">
+        <v>35.561504</v>
+      </c>
+      <c r="S9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="T9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="U9" s="33">
+        <v>0</v>
+      </c>
+      <c r="V9" s="32">
+        <v>0</v>
+      </c>
+      <c r="W9" s="32">
+        <v>0</v>
+      </c>
+      <c r="X9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AE9" s="32">
+        <v>2958465</v>
+      </c>
+      <c r="AF9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG9" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH9" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI9" s="32">
+        <v>1</v>
+      </c>
+      <c r="AJ9" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN9" s="32">
+        <v>1</v>
+      </c>
+      <c r="AO9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP9" s="32">
+        <v>1</v>
+      </c>
+      <c r="AQ9" s="32">
+        <v>1</v>
+      </c>
+      <c r="AR9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV9" s="32">
+        <v>1</v>
+      </c>
+      <c r="AW9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY9" s="32">
+        <v>1</v>
+      </c>
+      <c r="AZ9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP9" s="32">
+        <v>0</v>
+      </c>
+      <c r="BQ9" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT9" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU9" s="33">
+        <v>6</v>
+      </c>
+      <c r="BV9" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" customFormat="1" spans="1:74">
+      <c r="A10" s="27"/>
+      <c r="B10" s="32">
+        <v>43087.3815972222</v>
+      </c>
+      <c r="C10" s="32">
+        <v>43087.3815972222</v>
+      </c>
+      <c r="D10" s="32">
+        <v>0</v>
+      </c>
+      <c r="E10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" s="32">
+        <v>105027</v>
+      </c>
+      <c r="G10" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="H10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J10" s="32">
+        <v>13</v>
+      </c>
+      <c r="K10" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L10" s="32">
+        <v>13110</v>
+      </c>
+      <c r="M10" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="N10" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="O10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q10" s="33">
+        <v>139.7170975</v>
+      </c>
+      <c r="R10" s="32">
+        <v>35.5739412</v>
+      </c>
+      <c r="S10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="T10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="U10" s="33">
+        <v>0</v>
+      </c>
+      <c r="V10" s="32">
+        <v>0</v>
+      </c>
+      <c r="W10" s="32">
+        <v>0</v>
+      </c>
+      <c r="X10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD10" s="32">
+        <v>5</v>
+      </c>
+      <c r="AE10" s="32">
+        <v>2958465</v>
+      </c>
+      <c r="AF10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG10" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH10" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI10" s="32">
+        <v>1</v>
+      </c>
+      <c r="AJ10" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN10" s="32">
+        <v>1</v>
+      </c>
+      <c r="AO10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP10" s="32">
+        <v>1</v>
+      </c>
+      <c r="AQ10" s="32">
+        <v>1</v>
+      </c>
+      <c r="AR10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV10" s="32">
+        <v>1</v>
+      </c>
+      <c r="AW10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY10" s="32">
+        <v>1</v>
+      </c>
+      <c r="AZ10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP10" s="32">
+        <v>0</v>
+      </c>
+      <c r="BQ10" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT10" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU10" s="33">
+        <v>6</v>
+      </c>
+      <c r="BV10" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" customFormat="1" spans="1:74">
+      <c r="A11" s="27"/>
+      <c r="B11" s="32">
+        <v>43087.3815972222</v>
+      </c>
+      <c r="C11" s="32">
+        <v>43087.3815972222</v>
+      </c>
+      <c r="D11" s="32">
+        <v>0</v>
+      </c>
+      <c r="E11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" s="32">
+        <v>105037</v>
+      </c>
+      <c r="G11" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="H11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="I11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J11" s="32">
+        <v>13</v>
+      </c>
+      <c r="K11" s="32" t="s">
+        <v>93</v>
+      </c>
+      <c r="L11" s="32">
+        <v>13110</v>
+      </c>
+      <c r="M11" s="33" t="s">
+        <v>108</v>
+      </c>
+      <c r="N11" s="32" t="s">
+        <v>113</v>
+      </c>
+      <c r="O11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="P11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q11" s="33">
+        <v>139.7193674</v>
+      </c>
+      <c r="R11" s="32">
+        <v>35.5621012</v>
+      </c>
+      <c r="S11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="T11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="U11" s="33">
+        <v>0</v>
+      </c>
+      <c r="V11" s="32">
+        <v>0</v>
+      </c>
+      <c r="W11" s="32">
+        <v>0</v>
+      </c>
+      <c r="X11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="Y11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Z11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AA11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AB11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AD11" s="32">
+        <v>5</v>
+      </c>
+      <c r="AE11" s="32">
+        <v>2958465</v>
+      </c>
+      <c r="AF11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AG11" s="33">
+        <v>0</v>
+      </c>
+      <c r="AH11" s="32">
+        <v>0</v>
+      </c>
+      <c r="AI11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AJ11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AK11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AL11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AM11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AN11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AO11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AP11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AQ11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AR11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AS11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AT11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AU11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AV11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AW11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="AX11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="AY11" s="32">
+        <v>1</v>
+      </c>
+      <c r="AZ11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BA11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BB11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BC11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BD11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BE11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BF11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BG11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BH11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BI11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BJ11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BK11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BL11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BM11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BN11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BO11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BP11" s="32">
+        <v>0</v>
+      </c>
+      <c r="BQ11" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="BR11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BS11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BT11" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="BU11" s="33">
+        <v>6</v>
+      </c>
+      <c r="BV11" s="32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" customFormat="1" spans="1:7">
+      <c r="A12" s="23"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+    </row>
+    <row r="13" customFormat="1" spans="1:7">
+      <c r="A13" s="23"/>
+      <c r="B13" s="23"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="23"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+    </row>
+    <row r="14" customFormat="1" spans="1:7">
+      <c r="A14" s="23"/>
+      <c r="B14" s="23"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="23"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="23"/>
+    </row>
+    <row r="15" customFormat="1" spans="1:7">
+      <c r="A15" s="23"/>
+      <c r="B15" s="23"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="23"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="23"/>
+      <c r="G15" s="23"/>
+    </row>
+    <row r="16" s="23" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A16" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17" s="23" customFormat="1" ht="12" spans="2:19">
+      <c r="B17" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="K17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="L17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="M17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="N17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="O17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="P17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="R17" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="S17" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" s="23" customFormat="1" ht="12" spans="2:19">
+      <c r="B18" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="H18" s="38" t="s">
+        <v>119</v>
+      </c>
+      <c r="I18" s="38" t="s">
+        <v>120</v>
+      </c>
+      <c r="J18" s="38" t="s">
+        <v>121</v>
+      </c>
+      <c r="K18" s="38" t="s">
+        <v>122</v>
+      </c>
+      <c r="L18" s="38" t="s">
+        <v>123</v>
+      </c>
+      <c r="M18" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="N18" s="38" t="s">
+        <v>124</v>
+      </c>
+      <c r="O18" s="38" t="s">
+        <v>125</v>
+      </c>
+      <c r="P18" s="38" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q18" s="38" t="s">
+        <v>127</v>
+      </c>
+      <c r="R18" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="S18" s="38" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="19" s="23" customFormat="1" ht="12" spans="2:19">
+      <c r="B19" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D19" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G19" s="32" t="s">
+        <v>131</v>
+      </c>
+      <c r="H19" s="32" t="s">
+        <v>132</v>
+      </c>
+      <c r="I19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q19" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R19" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="S19" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="20" s="23" customFormat="1" ht="12" spans="2:19">
+      <c r="B20" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C20" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D20" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G20" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="H20" s="32" t="s">
+        <v>135</v>
+      </c>
+      <c r="I20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q20" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R20" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="S20" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="21" s="23" customFormat="1" ht="12" spans="2:19">
+      <c r="B21" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C21" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D21" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E21" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G21" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="H21" s="32" t="s">
+        <v>138</v>
+      </c>
+      <c r="I21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q21" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R21" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="S21" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" s="23" customFormat="1" ht="12" spans="2:19">
+      <c r="B22" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C22" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D22" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G22" s="32" t="s">
+        <v>140</v>
+      </c>
+      <c r="H22" s="32" t="s">
+        <v>141</v>
+      </c>
+      <c r="I22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q22" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R22" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="S22" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="23" s="23" customFormat="1" ht="12" spans="2:19">
+      <c r="B23" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C23" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D23" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G23" s="32" t="s">
+        <v>144</v>
+      </c>
+      <c r="H23" s="32" t="s">
+        <v>145</v>
+      </c>
+      <c r="I23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q23" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R23" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="S23" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="24" s="23" customFormat="1" ht="12" spans="2:19">
+      <c r="B24" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D24" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F24" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G24" s="32" t="s">
+        <v>134</v>
+      </c>
+      <c r="H24" s="32" t="s">
+        <v>146</v>
+      </c>
+      <c r="I24" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J24" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K24" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L24" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M24" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N24" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O24" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P24" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q24" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R24" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="S24" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="25" s="23" customFormat="1" ht="12" spans="2:19">
+      <c r="B25" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C25" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D25" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G25" s="32" t="s">
+        <v>148</v>
+      </c>
+      <c r="H25" s="32" t="s">
+        <v>149</v>
+      </c>
+      <c r="I25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="N25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="O25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="P25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q25" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="R25" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="S25" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="26" s="23" customFormat="1" ht="12"/>
+    <row r="27" s="17" customFormat="1" ht="12"/>
+    <row r="28" s="17" customFormat="1" ht="14.25" spans="1:7">
+      <c r="A28" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+    </row>
+    <row r="29" s="17" customFormat="1" ht="12" spans="2:7">
+      <c r="B29" s="35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D29" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E29" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F29" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G29" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="30" s="17" customFormat="1" ht="12" spans="1:7">
+      <c r="A30" s="23"/>
+      <c r="B30" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D30" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E30" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G30" s="38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" s="17" customFormat="1" ht="12" spans="1:7">
+      <c r="A31" s="23"/>
+      <c r="B31" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D31" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E31" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F31" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G31" s="32" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="32" s="17" customFormat="1" ht="12"/>
+    <row r="33" s="17" customFormat="1" ht="12"/>
+    <row r="34" s="17" customFormat="1" ht="14.25" spans="1:10">
+      <c r="A34" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B34" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="23"/>
+      <c r="G34" s="23"/>
+      <c r="H34" s="23"/>
+      <c r="I34" s="23"/>
+      <c r="J34" s="23"/>
+    </row>
+    <row r="35" s="17" customFormat="1" ht="12" spans="2:10">
+      <c r="B35" s="35" t="s">
+        <v>154</v>
+      </c>
+      <c r="C35" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D35" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E35" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F35" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G35" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H35" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I35" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J35" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="36" s="17" customFormat="1" ht="12" spans="1:10">
+      <c r="A36" s="23"/>
+      <c r="B36" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C36" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D36" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E36" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F36" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G36" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="H36" s="38" t="s">
+        <v>43</v>
+      </c>
+      <c r="I36" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="J36" s="38" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="37" s="17" customFormat="1" ht="12" spans="1:10">
+      <c r="A37" s="23"/>
+      <c r="B37" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D37" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E37" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F37" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G37" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I37" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J37" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" s="17" customFormat="1" ht="12" spans="1:10">
+      <c r="A38" s="23"/>
+      <c r="B38" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C38" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E38" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F38" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G38" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H38" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I38" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J38" s="32" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="39" s="17" customFormat="1" ht="12" spans="1:10">
+      <c r="A39" s="23"/>
+      <c r="B39" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C39" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D39" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E39" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F39" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G39" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I39" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J39" s="32" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" s="17" customFormat="1" ht="12" spans="1:10">
+      <c r="A40" s="23"/>
+      <c r="B40" s="32" t="s">
+        <v>139</v>
+      </c>
+      <c r="C40" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="D40" s="32" t="s">
+        <v>130</v>
+      </c>
+      <c r="E40" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F40" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G40" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H40" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I40" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J40" s="32" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="41" s="17" customFormat="1" ht="12" spans="1:10">
+      <c r="A41" s="23"/>
+      <c r="B41" s="32" t="s">
+        <v>142</v>
+      </c>
+      <c r="C41" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D41" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E41" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F41" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H41" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I41" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J41" s="32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="42" s="17" customFormat="1" ht="12" spans="1:10">
+      <c r="A42" s="23"/>
+      <c r="B42" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="C42" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E42" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F42" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G42" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H42" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I42" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J42" s="32" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="43" s="17" customFormat="1" ht="12" spans="1:10">
+      <c r="A43" s="23"/>
+      <c r="B43" s="32" t="s">
+        <v>147</v>
+      </c>
+      <c r="C43" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="D43" s="32" t="s">
+        <v>143</v>
+      </c>
+      <c r="E43" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F43" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G43" s="32" t="s">
+        <v>157</v>
+      </c>
+      <c r="H43" s="32" t="s">
+        <v>158</v>
+      </c>
+      <c r="I43" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="J43" s="32" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" s="17" customFormat="1" ht="12"/>
+    <row r="45" s="17" customFormat="1" ht="12"/>
+    <row r="46" s="23" customFormat="1" ht="14.25" spans="1:2">
+      <c r="A46" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B46" s="23" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="47" s="23" customFormat="1" ht="12" spans="2:13">
+      <c r="B47" s="35" t="s">
+        <v>160</v>
+      </c>
+      <c r="C47" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="D47" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="E47" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="F47" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="G47" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H47" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="I47" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="K47" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="L47" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="M47" s="36" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="48" s="23" customFormat="1" ht="12" spans="2:13">
+      <c r="B48" s="37" t="s">
+        <v>117</v>
+      </c>
+      <c r="C48" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D48" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="E48" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="38" t="s">
+        <v>17</v>
+      </c>
+      <c r="G48" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="H48" s="38" t="s">
+        <v>161</v>
+      </c>
+      <c r="I48" s="38" t="s">
+        <v>162</v>
+      </c>
+      <c r="J48" s="38" t="s">
+        <v>163</v>
+      </c>
+      <c r="K48" s="38" t="s">
+        <v>164</v>
+      </c>
+      <c r="L48" s="38" t="s">
+        <v>165</v>
+      </c>
+      <c r="M48" s="38" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="49" s="23" customFormat="1" ht="12" spans="2:13">
+      <c r="B49" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" s="32" t="s">
+        <v>166</v>
+      </c>
+      <c r="D49" s="32" t="s">
+        <v>167</v>
+      </c>
+      <c r="E49" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F49" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G49" s="32" t="s">
+        <v>168</v>
+      </c>
+      <c r="H49" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I49" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J49" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K49" s="32" t="s">
+        <v>169</v>
+      </c>
+      <c r="L49" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M49" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="50" s="23" customFormat="1" ht="12" spans="2:13">
+      <c r="B50" s="32" t="s">
+        <v>133</v>
+      </c>
+      <c r="C50" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="D50" s="32" t="s">
+        <v>170</v>
+      </c>
+      <c r="E50" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F50" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G50" s="32" t="s">
+        <v>171</v>
+      </c>
+      <c r="H50" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I50" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J50" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K50" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L50" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M50" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="51" s="23" customFormat="1" ht="12" spans="2:13">
+      <c r="B51" s="32" t="s">
+        <v>136</v>
+      </c>
+      <c r="C51" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="D51" s="32" t="s">
+        <v>172</v>
+      </c>
+      <c r="E51" s="32" t="s">
+        <v>88</v>
+      </c>
+      <c r="F51" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="G51" s="32" t="s">
+        <v>173</v>
+      </c>
+      <c r="H51" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="I51" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="J51" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="K51" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="L51" s="33" t="s">
+        <v>89</v>
+      </c>
+      <c r="M51" s="33" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" s="23" customFormat="1" ht="12"/>
+    <row r="53" s="17" customFormat="1" ht="12"/>
+    <row r="54" s="17" customFormat="1" ht="12"/>
+    <row r="56" ht="14.25" spans="1:2">
+      <c r="A56" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B56" s="23" t="s">
         <v>189</v>
       </c>
-      <c r="C5" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="E5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F5" s="32" t="s">
+    </row>
+    <row r="57" spans="1:2">
+      <c r="A57" s="17"/>
+      <c r="B57" s="35" t="s">
         <v>190</v>
       </c>
-      <c r="G5" s="32" t="s">
-        <v>184</v>
-      </c>
-      <c r="H5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="I5" s="32" t="s">
+    </row>
+    <row r="58" customFormat="1"/>
+    <row r="59" customFormat="1"/>
+    <row r="60" ht="14.25" spans="1:2">
+      <c r="A60" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B60" s="23" t="s">
         <v>191</v>
       </c>
-      <c r="J5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="K5" s="32" t="s">
+    </row>
+    <row r="61" spans="1:2">
+      <c r="A61" s="17"/>
+      <c r="B61" s="35" t="s">
         <v>192</v>
       </c>
-      <c r="L5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="M5" s="32" t="s">
+    </row>
+    <row r="65" ht="14.25" spans="1:2">
+      <c r="A65" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B65" s="23" t="s">
         <v>193</v>
       </c>
-      <c r="N5" s="32" t="s">
+    </row>
+    <row r="66" spans="1:2">
+      <c r="A66" s="17"/>
+      <c r="B66" s="35" t="s">
         <v>194</v>
       </c>
-      <c r="O5" s="32" t="s">
+    </row>
+    <row r="70" ht="14.25" spans="1:2">
+      <c r="A70" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="23" t="s">
         <v>195</v>
       </c>
-      <c r="P5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="R5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="S5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="T5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="U5" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="V5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="W5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="X5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AA5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AB5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AC5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AD5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AE5" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="AF5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AG5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AH5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AI5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AJ5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AK5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AL5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AM5" s="34" t="s">
-        <v>89</v>
-      </c>
-      <c r="AN5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AO5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AP5" s="32" t="s">
+    </row>
+    <row r="71" spans="1:2">
+      <c r="A71" s="17"/>
+      <c r="B71" s="35" t="s">
         <v>196</v>
       </c>
-      <c r="AQ5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AR5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AS5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AT5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AU5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AV5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AW5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AX5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="AY5" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="AZ5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BA5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BB5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BC5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BD5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BE5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BF5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BG5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BH5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BI5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BJ5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BK5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BL5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BM5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BN5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BO5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BP5" s="32" t="s">
-        <v>88</v>
-      </c>
-      <c r="BQ5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BR5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BS5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BT5" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="BU5" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="BV5" s="32" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="2:74">
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-      <c r="L6" s="33"/>
-      <c r="M6" s="33"/>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="33"/>
-      <c r="S6" s="33"/>
-      <c r="T6" s="33"/>
-      <c r="U6" s="33"/>
-      <c r="V6" s="33"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="33"/>
-      <c r="Y6" s="33"/>
-      <c r="Z6" s="33"/>
-      <c r="AA6" s="33"/>
-      <c r="AB6" s="33"/>
-      <c r="AC6" s="33"/>
-      <c r="AD6" s="33"/>
-      <c r="AE6" s="33"/>
-      <c r="AF6" s="33"/>
-      <c r="AG6" s="33"/>
-      <c r="AH6" s="33"/>
-      <c r="AI6" s="33"/>
-      <c r="AJ6" s="33"/>
-      <c r="AK6" s="33"/>
-      <c r="AL6" s="33"/>
-      <c r="AM6" s="33"/>
-      <c r="AN6" s="33"/>
-      <c r="AO6" s="33"/>
-      <c r="AP6" s="33"/>
-      <c r="AQ6" s="33"/>
-      <c r="AR6" s="33"/>
-      <c r="AS6" s="33"/>
-      <c r="AT6" s="33"/>
-      <c r="AU6" s="33"/>
-      <c r="AV6" s="33"/>
-      <c r="AW6" s="33"/>
-      <c r="AX6" s="33"/>
-      <c r="AY6" s="33"/>
-      <c r="AZ6" s="33"/>
-      <c r="BA6" s="33"/>
-      <c r="BB6" s="33"/>
-      <c r="BC6" s="33"/>
-      <c r="BD6" s="33"/>
-      <c r="BE6" s="33"/>
-      <c r="BF6" s="33"/>
-      <c r="BG6" s="33"/>
-      <c r="BH6" s="33"/>
-      <c r="BI6" s="33"/>
-      <c r="BJ6" s="33"/>
-      <c r="BK6" s="33"/>
-      <c r="BL6" s="33"/>
-      <c r="BM6" s="33"/>
-      <c r="BN6" s="33"/>
-      <c r="BO6" s="33"/>
-      <c r="BP6" s="33"/>
-      <c r="BQ6" s="33"/>
-      <c r="BR6" s="33"/>
-      <c r="BS6" s="33"/>
-      <c r="BT6" s="33"/>
-      <c r="BU6" s="33"/>
-      <c r="BV6" s="33"/>
-    </row>
-    <row r="7" s="23" customFormat="1" ht="12"/>
-    <row r="8" s="17" customFormat="1" ht="12"/>
+    </row>
+    <row r="74" ht="14.25" spans="1:2">
+      <c r="A74" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B74" s="23" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
+      <c r="A75" s="17"/>
+      <c r="B75" s="35" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" ht="14.25" spans="1:2">
+      <c r="A79" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B79" s="23"/>
+    </row>
+    <row r="80" spans="1:2">
+      <c r="A80" s="17"/>
+      <c r="B80" s="35"/>
+    </row>
+    <row r="84" ht="14.25" spans="1:2">
+      <c r="A84" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B84" s="23" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
+      <c r="A85" s="17"/>
+      <c r="B85" s="35" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="88" ht="14.25" spans="1:2">
+      <c r="A88" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
+      <c r="A89" s="17"/>
+      <c r="B89" s="35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="92" ht="14.25" spans="1:2">
+      <c r="A92" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B92" s="23"/>
+    </row>
+    <row r="93" spans="1:2">
+      <c r="A93" s="17"/>
+      <c r="B93" s="35"/>
+    </row>
+    <row r="97" ht="14.25" spans="1:2">
+      <c r="A97" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B97" s="23" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
+      <c r="A98" s="17"/>
+      <c r="B98" s="35" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="102" ht="14.25" spans="1:2">
+      <c r="A102" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B102" s="23" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
+      <c r="A103" s="17"/>
+      <c r="B103" s="35" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="107" ht="14.25" spans="1:2">
+      <c r="A107" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B107" s="23" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
+      <c r="A108" s="17"/>
+      <c r="B108" s="35" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" ht="14.25" spans="1:2">
+      <c r="A112" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B112" s="23" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
+      <c r="A113" s="17"/>
+      <c r="B113" s="35" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="117" ht="14.25" spans="1:2">
+      <c r="A117" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B117" s="23" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
+      <c r="A118" s="17"/>
+      <c r="B118" s="35" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="123" ht="14.25" spans="1:2">
+      <c r="A123" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B123" s="23" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
+      <c r="A124" s="17"/>
+      <c r="B124" s="35" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="128" ht="14.25" spans="1:2">
+      <c r="A128" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B128" s="23" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
+      <c r="A129" s="17"/>
+      <c r="B129" s="35" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="133" ht="14.25" spans="1:2">
+      <c r="A133" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B133" s="23" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
+      <c r="A134" s="17"/>
+      <c r="B134" s="35" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="138" ht="14.25" spans="1:2">
+      <c r="A138" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B138" s="23" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
+      <c r="A139" s="17"/>
+      <c r="B139" s="35" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="143" ht="14.25" spans="1:2">
+      <c r="A143" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B143" s="23" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
+      <c r="A144" s="17"/>
+      <c r="B144" s="35" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="148" ht="14.25" spans="1:2">
+      <c r="A148" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B148" s="23" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
+      <c r="A149" s="17"/>
+      <c r="B149" s="35" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="153" ht="14.25" spans="1:2">
+      <c r="A153" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B153" s="23" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
+      <c r="A154" s="17"/>
+      <c r="B154" s="35" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="159" ht="14.25" spans="1:2">
+      <c r="A159" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B159" s="23" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
+      <c r="A160" s="17"/>
+      <c r="B160" s="35" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="164" ht="14.25" spans="1:2">
+      <c r="A164" s="34" t="s">
+        <v>11</v>
+      </c>
+      <c r="B164" s="23" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
+      <c r="A165" s="17"/>
+      <c r="B165" s="35" t="s">
+        <v>226</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>
@@ -5762,7 +8303,7 @@
       <c r="A1" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="41" t="s">
         <v>175</v>
       </c>
     </row>
@@ -5823,7 +8364,7 @@
         <v>176</v>
       </c>
       <c r="B11" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
     </row>
     <row r="13" ht="14.25" spans="1:2">
@@ -5831,7 +8372,7 @@
         <v>187</v>
       </c>
       <c r="B13" s="17" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" ht="14.25" spans="1:2">
@@ -5839,7 +8380,7 @@
         <v>176</v>
       </c>
       <c r="B17" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
     </row>
     <row r="18" ht="14.25" spans="1:2">
@@ -5847,7 +8388,7 @@
         <v>187</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>200</v>
+        <v>230</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:2">
@@ -5855,7 +8396,7 @@
         <v>176</v>
       </c>
       <c r="B19" t="s">
-        <v>199</v>
+        <v>229</v>
       </c>
     </row>
     <row r="21" ht="14.25" spans="1:2">
@@ -5863,12 +8404,12 @@
         <v>176</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>231</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:2">
       <c r="A22" s="18" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -5879,20 +8420,20 @@
         <v>187</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>203</v>
+        <v>233</v>
       </c>
     </row>
     <row r="24" ht="14.25" spans="1:2">
       <c r="A24" s="18" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B24" t="s">
-        <v>204</v>
+        <v>234</v>
       </c>
     </row>
     <row r="25" ht="14.25" spans="1:2">
       <c r="A25" s="18" t="s">
-        <v>202</v>
+        <v>232</v>
       </c>
       <c r="B25">
         <v>0</v>
@@ -5910,7 +8451,7 @@
   <dimension ref="B4:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+      <selection activeCell="D9" sqref="D9:F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -5929,187 +8470,196 @@
   <sheetData>
     <row r="4" spans="2:11">
       <c r="B4" s="4" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>206</v>
+        <v>236</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>209</v>
+        <v>239</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>208</v>
+        <v>238</v>
       </c>
       <c r="I4" s="12" t="s">
-        <v>210</v>
+        <v>240</v>
       </c>
       <c r="J4" s="13" t="s">
-        <v>211</v>
+        <v>241</v>
       </c>
       <c r="K4" s="12" t="s">
-        <v>207</v>
+        <v>237</v>
       </c>
     </row>
     <row r="5" s="1" customFormat="1" spans="2:11">
       <c r="B5" s="9" t="s">
-        <v>212</v>
+        <v>242</v>
       </c>
       <c r="C5" s="10"/>
       <c r="D5" s="2" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>215</v>
+        <v>245</v>
       </c>
       <c r="G5" s="10"/>
       <c r="H5" s="10"/>
       <c r="I5" s="14" t="s">
-        <v>216</v>
+        <v>246</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>217</v>
+        <v>247</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>218</v>
+        <v>248</v>
       </c>
     </row>
     <row r="6" s="1" customFormat="1" spans="2:11">
       <c r="B6" s="9" t="s">
-        <v>219</v>
+        <v>249</v>
       </c>
       <c r="C6" s="10"/>
       <c r="D6" s="2" t="s">
-        <v>220</v>
+        <v>250</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>214</v>
+        <v>244</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>221</v>
+        <v>251</v>
       </c>
       <c r="G6" s="10"/>
       <c r="H6" s="10"/>
       <c r="I6" s="14" t="s">
-        <v>222</v>
+        <v>252</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>223</v>
+        <v>253</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="2:11">
       <c r="B7" s="11" t="s">
-        <v>225</v>
+        <v>255</v>
       </c>
       <c r="I7" s="14" t="s">
-        <v>226</v>
+        <v>256</v>
       </c>
       <c r="J7" s="15"/>
       <c r="K7" s="15" t="s">
-        <v>227</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="2:11">
       <c r="B8" s="11" t="s">
-        <v>228</v>
+        <v>258</v>
       </c>
       <c r="I8" s="14" t="s">
-        <v>229</v>
+        <v>259</v>
       </c>
       <c r="J8" s="16"/>
       <c r="K8" s="14" t="s">
-        <v>230</v>
+        <v>260</v>
       </c>
     </row>
     <row r="9" spans="2:11">
       <c r="B9" s="11" t="s">
-        <v>231</v>
+        <v>261</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>232</v>
+        <v>262</v>
       </c>
       <c r="E9" s="2" t="s">
-        <v>233</v>
+        <v>263</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>234</v>
+        <v>264</v>
       </c>
       <c r="I9" s="14" t="s">
-        <v>235</v>
+        <v>265</v>
       </c>
       <c r="J9" s="16" t="s">
-        <v>236</v>
+        <v>266</v>
       </c>
       <c r="K9" s="14" t="s">
-        <v>237</v>
+        <v>267</v>
       </c>
     </row>
     <row r="10" spans="2:11">
       <c r="B10" s="11" t="s">
-        <v>238</v>
+        <v>268</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>271</v>
       </c>
       <c r="I10" s="14" t="s">
-        <v>239</v>
+        <v>272</v>
       </c>
       <c r="J10" s="15" t="s">
-        <v>240</v>
+        <v>273</v>
       </c>
       <c r="K10" s="15" t="s">
-        <v>224</v>
+        <v>254</v>
       </c>
     </row>
     <row r="11" spans="2:11">
       <c r="B11" s="11" t="s">
-        <v>241</v>
+        <v>274</v>
       </c>
       <c r="I11" s="14" t="s">
-        <v>242</v>
+        <v>275</v>
       </c>
       <c r="J11" s="16"/>
       <c r="K11" s="14" t="s">
-        <v>243</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="2:11">
       <c r="B12" s="11" t="s">
-        <v>244</v>
+        <v>277</v>
       </c>
       <c r="I12" s="14" t="s">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="K12" s="14" t="s">
-        <v>247</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="2:11">
       <c r="B13" s="11" t="s">
-        <v>248</v>
+        <v>281</v>
       </c>
       <c r="I13" s="14" t="s">
-        <v>249</v>
+        <v>282</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>246</v>
+        <v>279</v>
       </c>
       <c r="K13" s="14" t="s">
-        <v>250</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
